--- a/VersionRecords/Version 3.2.0/定时器/mogoda-tasktracker定时器工程配置/mogoda-tasktracker定时器.xlsx
+++ b/VersionRecords/Version 3.2.0/定时器/mogoda-tasktracker定时器工程配置/mogoda-tasktracker定时器.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>介绍：</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>此工程需部署在独立的线上服务器上，服务器运维已经申请，需要先安装mysql,memcache,LTS等服务</t>
+  </si>
+  <si>
+    <t>因为mogoda定时器存在时间戳验证机制，需要保证新的生产机和现存的BS所在的生产机的系统时间相差不超过30秒。</t>
   </si>
   <si>
     <t>整体配置基本可以copy原定时器工程mogoroom-tasktracker的配置，但需要修改以下配置：</t>
@@ -57,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -81,34 +84,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -118,15 +129,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,78 +196,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,6 +211,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,37 +241,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,139 +373,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +426,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,6 +464,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,30 +512,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -491,35 +520,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +546,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1003,10 +1006,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:C16"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1042,48 +1045,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9">
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
         <v>2.1</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
         <v>2.2</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
